--- a/output/TUN.xlsx
+++ b/output/TUN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,27 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>4. Agriculture land area (% of land area)_x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>4. Agriculture land area (% of land area)_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>13. Population</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_x</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_y</t>
         </is>
       </c>
     </row>
@@ -487,29 +507,1076 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>80.2</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59.28166838</v>
+      </c>
+      <c r="F2" t="n">
+        <v>59.28166838</v>
+      </c>
+      <c r="G2" t="n">
+        <v>213.28</v>
+      </c>
+      <c r="H2" t="n">
+        <v>34.00962861</v>
+      </c>
+      <c r="I2" t="n">
+        <v>34.00962861</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8622853</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8622853</v>
+      </c>
+      <c r="L2" t="n">
+        <v>23.0520964579591</v>
+      </c>
+      <c r="M2" t="n">
+        <v>23.0520964579591</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>63.32</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="E3" t="n">
+        <v>60.21498455</v>
+      </c>
+      <c r="F3" t="n">
+        <v>60.21498455</v>
+      </c>
+      <c r="G3" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>36.12207703</v>
+      </c>
+      <c r="I3" t="n">
+        <v>36.12207703</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8802540</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8802540</v>
+      </c>
+      <c r="L3" t="n">
+        <v>22.7587471608735</v>
+      </c>
+      <c r="M3" t="n">
+        <v>22.7587471608735</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60.64624099</v>
+      </c>
+      <c r="F4" t="n">
+        <v>60.64624099</v>
+      </c>
+      <c r="G4" t="n">
+        <v>200.69</v>
+      </c>
+      <c r="H4" t="n">
+        <v>31.93839973</v>
+      </c>
+      <c r="I4" t="n">
+        <v>31.93839973</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8977173</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8977173</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22.5646178273858</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22.5646178273858</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>47.13</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>59.7515448</v>
+      </c>
+      <c r="F5" t="n">
+        <v>59.7515448</v>
+      </c>
+      <c r="G5" t="n">
+        <v>214</v>
+      </c>
+      <c r="H5" t="n">
+        <v>31.44876325</v>
+      </c>
+      <c r="I5" t="n">
+        <v>31.44876325</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9143141</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9143141</v>
+      </c>
+      <c r="L5" t="n">
+        <v>22.3328453228818</v>
+      </c>
+      <c r="M5" t="n">
+        <v>22.3328453228818</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>60.16992791</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60.16992791</v>
+      </c>
+      <c r="G6" t="n">
+        <v>204.71</v>
+      </c>
+      <c r="H6" t="n">
+        <v>27.09359606</v>
+      </c>
+      <c r="I6" t="n">
+        <v>27.09359606</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9294102</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9294102</v>
+      </c>
+      <c r="L6" t="n">
+        <v>22.1299356815496</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22.1299356815496</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60.01544799</v>
+      </c>
+      <c r="F7" t="n">
+        <v>60.01544799</v>
+      </c>
+      <c r="G7" t="n">
+        <v>217.47</v>
+      </c>
+      <c r="H7" t="n">
+        <v>34.09490334</v>
+      </c>
+      <c r="I7" t="n">
+        <v>34.09490334</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9430550</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9430550</v>
+      </c>
+      <c r="L7" t="n">
+        <v>21.7767979938807</v>
+      </c>
+      <c r="M7" t="n">
+        <v>21.7767979938807</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="E8" t="n">
+        <v>60.16349125</v>
+      </c>
+      <c r="F8" t="n">
+        <v>60.16349125</v>
+      </c>
+      <c r="G8" t="n">
+        <v>219.42</v>
+      </c>
+      <c r="H8" t="n">
+        <v>33.92618629</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33.92618629</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9557948</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9557948</v>
+      </c>
+      <c r="L8" t="n">
+        <v>21.438096896596</v>
+      </c>
+      <c r="M8" t="n">
+        <v>21.438096896596</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="E9" t="n">
+        <v>60.63336766</v>
+      </c>
+      <c r="F9" t="n">
+        <v>60.63336766</v>
+      </c>
+      <c r="G9" t="n">
+        <v>192.91</v>
+      </c>
+      <c r="H9" t="n">
+        <v>39.54602292</v>
+      </c>
+      <c r="I9" t="n">
+        <v>39.54602292</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9677148</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9677148</v>
+      </c>
+      <c r="L9" t="n">
+        <v>21.086325890303</v>
+      </c>
+      <c r="M9" t="n">
+        <v>21.086325890303</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>61.31565396</v>
+      </c>
+      <c r="F10" t="n">
+        <v>61.31565396</v>
+      </c>
+      <c r="G10" t="n">
+        <v>193.43</v>
+      </c>
+      <c r="H10" t="n">
+        <v>38.56995531</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38.56995531</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9788067</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9788067</v>
+      </c>
+      <c r="L10" t="n">
+        <v>20.6678334029328</v>
+      </c>
+      <c r="M10" t="n">
+        <v>20.6678334029328</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>61.47657055</v>
+      </c>
+      <c r="F11" t="n">
+        <v>61.47657055</v>
+      </c>
+      <c r="G11" t="n">
+        <v>197.46</v>
+      </c>
+      <c r="H11" t="n">
+        <v>38.86173184</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38.86173184</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9893316</v>
+      </c>
+      <c r="K11" t="n">
+        <v>9893316</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20.2640531404257</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20.2640531404257</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="E12" t="n">
+        <v>61.14186406</v>
+      </c>
+      <c r="F12" t="n">
+        <v>61.14186406</v>
+      </c>
+      <c r="G12" t="n">
+        <v>201.03</v>
+      </c>
+      <c r="H12" t="n">
+        <v>36.04902668</v>
+      </c>
+      <c r="I12" t="n">
+        <v>36.04902668</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9995123</v>
+      </c>
+      <c r="K12" t="n">
+        <v>9995123</v>
+      </c>
+      <c r="L12" t="n">
+        <v>19.8652193025814</v>
+      </c>
+      <c r="M12" t="n">
+        <v>19.8652193025814</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="E13" t="n">
+        <v>62.84114315</v>
+      </c>
+      <c r="F13" t="n">
+        <v>62.84114315</v>
+      </c>
+      <c r="G13" t="n">
+        <v>202.24</v>
+      </c>
+      <c r="H13" t="n">
+        <v>36.80981595</v>
+      </c>
+      <c r="I13" t="n">
+        <v>36.80981595</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10094561</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10094561</v>
+      </c>
+      <c r="L13" t="n">
+        <v>19.6589106201493</v>
+      </c>
+      <c r="M13" t="n">
+        <v>19.6589106201493</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="E14" t="n">
+        <v>62.97631308</v>
+      </c>
+      <c r="F14" t="n">
+        <v>62.97631308</v>
+      </c>
+      <c r="G14" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>39.60573477</v>
+      </c>
+      <c r="I14" t="n">
+        <v>39.60573477</v>
+      </c>
+      <c r="J14" t="n">
+        <v>10193798</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10193798</v>
+      </c>
+      <c r="L14" t="n">
+        <v>19.2478799970523</v>
+      </c>
+      <c r="M14" t="n">
+        <v>19.2478799970523</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>63.27239959</v>
+      </c>
+      <c r="F15" t="n">
+        <v>63.27239959</v>
+      </c>
+      <c r="G15" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>42.6728771</v>
+      </c>
+      <c r="I15" t="n">
+        <v>42.6728771</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10292225</v>
+      </c>
+      <c r="K15" t="n">
+        <v>10292225</v>
+      </c>
+      <c r="L15" t="n">
+        <v>18.7558823054873</v>
+      </c>
+      <c r="M15" t="n">
+        <v>18.7558823054873</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="E16" t="n">
+        <v>63.23377961</v>
+      </c>
+      <c r="F16" t="n">
+        <v>63.23377961</v>
+      </c>
+      <c r="G16" t="n">
+        <v>210.81</v>
+      </c>
+      <c r="H16" t="n">
+        <v>45.45787546</v>
+      </c>
+      <c r="I16" t="n">
+        <v>45.45787546</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10388344</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10388344</v>
+      </c>
+      <c r="L16" t="n">
+        <v>18.5251915261202</v>
+      </c>
+      <c r="M16" t="n">
+        <v>18.5251915261202</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="E17" t="n">
+        <v>63.11791967</v>
+      </c>
+      <c r="F17" t="n">
+        <v>63.11791967</v>
+      </c>
+      <c r="G17" t="n">
+        <v>203.83</v>
+      </c>
+      <c r="H17" t="n">
+        <v>44.91494752</v>
+      </c>
+      <c r="I17" t="n">
+        <v>44.91494752</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10483558</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10483558</v>
+      </c>
+      <c r="L17" t="n">
+        <v>19.4381984731359</v>
+      </c>
+      <c r="M17" t="n">
+        <v>19.4381984731359</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>85.5</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="E18" t="n">
+        <v>63.11148301</v>
+      </c>
+      <c r="F18" t="n">
+        <v>63.11148301</v>
+      </c>
+      <c r="G18" t="n">
+        <v>196.06</v>
+      </c>
+      <c r="H18" t="n">
+        <v>46.13977314</v>
+      </c>
+      <c r="I18" t="n">
+        <v>46.13977314</v>
+      </c>
+      <c r="J18" t="n">
+        <v>10580395</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10580395</v>
+      </c>
+      <c r="L18" t="n">
+        <v>18.7020423864381</v>
+      </c>
+      <c r="M18" t="n">
+        <v>18.7020423864381</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="E19" t="n">
+        <v>63.60066941</v>
+      </c>
+      <c r="F19" t="n">
+        <v>63.60066941</v>
+      </c>
+      <c r="G19" t="n">
+        <v>200.52</v>
+      </c>
+      <c r="H19" t="n">
+        <v>40.84656085</v>
+      </c>
+      <c r="I19" t="n">
+        <v>40.84656085</v>
+      </c>
+      <c r="J19" t="n">
+        <v>10680380</v>
+      </c>
+      <c r="K19" t="n">
+        <v>10680380</v>
+      </c>
+      <c r="L19" t="n">
+        <v>18.0217452818055</v>
+      </c>
+      <c r="M19" t="n">
+        <v>18.0217452818055</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>87.7</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="E20" t="n">
+        <v>63.0084964</v>
+      </c>
+      <c r="F20" t="n">
+        <v>63.0084964</v>
+      </c>
+      <c r="G20" t="n">
+        <v>185.92</v>
+      </c>
+      <c r="H20" t="n">
+        <v>48.39305504</v>
+      </c>
+      <c r="I20" t="n">
+        <v>48.39305504</v>
+      </c>
+      <c r="J20" t="n">
+        <v>10784504</v>
+      </c>
+      <c r="K20" t="n">
+        <v>10784504</v>
+      </c>
+      <c r="L20" t="n">
+        <v>18.4712188357519</v>
+      </c>
+      <c r="M20" t="n">
+        <v>18.4712188357519</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="E21" t="n">
+        <v>64.61122554000001</v>
+      </c>
+      <c r="F21" t="n">
+        <v>64.61122554000001</v>
+      </c>
+      <c r="G21" t="n">
+        <v>186.58</v>
+      </c>
+      <c r="H21" t="n">
+        <v>47.43181013</v>
+      </c>
+      <c r="I21" t="n">
+        <v>47.43181013</v>
+      </c>
+      <c r="J21" t="n">
+        <v>10895063</v>
+      </c>
+      <c r="K21" t="n">
+        <v>10895063</v>
+      </c>
+      <c r="L21" t="n">
+        <v>17.9460990980078</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17.9460990980078</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="E22" t="n">
+        <v>64.83007209</v>
+      </c>
+      <c r="F22" t="n">
+        <v>64.83007209</v>
+      </c>
+      <c r="G22" t="n">
+        <v>221.42</v>
+      </c>
+      <c r="H22" t="n">
+        <v>48.397323</v>
+      </c>
+      <c r="I22" t="n">
+        <v>48.397323</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11032528</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11032528</v>
+      </c>
+      <c r="L22" t="n">
+        <v>16.3611776809862</v>
+      </c>
+      <c r="M22" t="n">
+        <v>16.3611776809862</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="E23" t="n">
+        <v>63.86457261</v>
+      </c>
+      <c r="F23" t="n">
+        <v>63.86457261</v>
+      </c>
+      <c r="G23" t="n">
+        <v>215.05</v>
+      </c>
+      <c r="H23" t="n">
+        <v>49.50842697</v>
+      </c>
+      <c r="I23" t="n">
+        <v>49.50842697</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11174383</v>
+      </c>
+      <c r="K23" t="n">
+        <v>11174383</v>
+      </c>
+      <c r="L23" t="n">
+        <v>17.0738047208224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>17.0738047208224</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="E24" t="n">
+        <v>63.99974253</v>
+      </c>
+      <c r="F24" t="n">
+        <v>63.99974253</v>
+      </c>
+      <c r="G24" t="n">
+        <v>192.26</v>
+      </c>
+      <c r="H24" t="n">
+        <v>40.41359972</v>
+      </c>
+      <c r="I24" t="n">
+        <v>40.41359972</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11300284</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11300284</v>
+      </c>
+      <c r="L24" t="n">
+        <v>15.3647603454432</v>
+      </c>
+      <c r="M24" t="n">
+        <v>15.3647603454432</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>2014</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>86.95</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D25" t="n">
         <v>20.49</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E25" t="n">
         <v>62.82826982</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F25" t="n">
+        <v>62.82826982</v>
+      </c>
+      <c r="G25" t="n">
         <v>208.3</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H25" t="n">
         <v>45.7496136</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I25" t="n">
+        <v>45.7496136</v>
+      </c>
+      <c r="J25" t="n">
         <v>11428948</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K25" t="n">
+        <v>11428948</v>
+      </c>
+      <c r="L25" t="n">
+        <v>14.8672966763635</v>
+      </c>
+      <c r="M25" t="n">
         <v>14.8672966763635</v>
       </c>
     </row>

--- a/output/TUN.xlsx
+++ b/output/TUN.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>3. Agricultural land area (sq. km)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -488,7 +488,7 @@
         <v>86.95</v>
       </c>
       <c r="D2" t="n">
-        <v>62.82826982</v>
+        <v>97609.99999235199</v>
       </c>
       <c r="E2" t="n">
         <v>207</v>
@@ -516,7 +516,7 @@
         <v>119.87</v>
       </c>
       <c r="D3" t="n">
-        <v>63.29814624</v>
+        <v>98339.999998464</v>
       </c>
       <c r="E3" t="n">
         <v>207</v>
@@ -544,7 +544,7 @@
         <v>93.18000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>62.45236869</v>
+        <v>97025.999996784</v>
       </c>
       <c r="E4" t="n">
         <v>207</v>
@@ -572,7 +572,7 @@
         <v>90.70999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>62.71176622</v>
+        <v>97428.99999939199</v>
       </c>
       <c r="E5" t="n">
         <v>207</v>
@@ -600,7 +600,7 @@
         <v>118.98</v>
       </c>
       <c r="D6" t="n">
-        <v>62.4388517</v>
+        <v>97005.00000112</v>
       </c>
       <c r="E6" t="n">
         <v>207</v>
@@ -628,7 +628,7 @@
         <v>106.36</v>
       </c>
       <c r="D7" t="n">
-        <v>62.4388517</v>
+        <v>97005.00000112</v>
       </c>
       <c r="E7" t="n">
         <v>207</v>
@@ -656,7 +656,7 @@
         <v>131.04</v>
       </c>
       <c r="D8" t="n">
-        <v>62.4388517</v>
+        <v>97005.00000112</v>
       </c>
       <c r="E8" t="n">
         <v>207</v>
@@ -684,7 +684,7 @@
         <v>102.89</v>
       </c>
       <c r="D9" t="n">
-        <v>62.4388517</v>
+        <v>97005.00000112</v>
       </c>
       <c r="E9" t="n">
         <v>207</v>

--- a/output/TUN.xlsx
+++ b/output/TUN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,102 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3. Agricultural land area (sq. km)</t>
+          <t>1. Mean air temperature</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>10. PM2.5 air pollution, mean annual exposure (micrograms per cubic meter)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>11. Arable land (hectares)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>12. Livestock production index (2014-2016 = 100)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>14. Fertilizers by Nutrient (phosphate P2O5)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. Population living in slums (% of urban population)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>18. Temperature change on land</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>19. Fertilizers by Nutrient (nitrogen N)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2. Energy use in agriculture</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>20. Agriculture land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>21. Employment in agriculture</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>3. Land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>4. Agriculture land area (% of land area)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm per year)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>6. Permanent cropland (% of land area)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>13. Population</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>8. Annual freshwater withdrawals, total (billion cubic meters)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>9. Fertilizers by Nutrient (potash K2O)</t>
         </is>
       </c>
     </row>
@@ -482,26 +557,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C2" t="n">
-        <v>86.95</v>
-      </c>
+        <v>1950</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>97609.99999235199</v>
-      </c>
-      <c r="E2" t="n">
-        <v>207</v>
-      </c>
-      <c r="F2" t="n">
-        <v>45.7496136</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11428948</v>
-      </c>
-      <c r="H2" t="n">
-        <v>14.8672966763635</v>
-      </c>
+        <v>19.39</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,26 +590,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C3" t="n">
-        <v>119.87</v>
-      </c>
+        <v>1951</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>98339.999998464</v>
-      </c>
-      <c r="E3" t="n">
-        <v>207</v>
-      </c>
-      <c r="F3" t="n">
-        <v>53.11284047</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11557779</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14.7513386946901</v>
-      </c>
+        <v>19.44</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -538,26 +623,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93.18000000000001</v>
-      </c>
+        <v>1952</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>97025.999996784</v>
-      </c>
-      <c r="E4" t="n">
-        <v>207</v>
-      </c>
-      <c r="F4" t="n">
-        <v>61.9831487</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11685667</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14.7653815482021</v>
-      </c>
+        <v>19.44</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -566,26 +656,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C5" t="n">
-        <v>90.70999999999999</v>
-      </c>
+        <v>1953</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>97428.99999939199</v>
-      </c>
-      <c r="E5" t="n">
-        <v>207</v>
-      </c>
-      <c r="F5" t="n">
-        <v>48.75522651</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11811443</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14.8123065617095</v>
-      </c>
+        <v>19.54</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,26 +689,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C6" t="n">
-        <v>118.98</v>
-      </c>
+        <v>1954</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>97005.00000112</v>
-      </c>
-      <c r="E6" t="n">
-        <v>207</v>
-      </c>
-      <c r="F6" t="n">
-        <v>57.24626401</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11933041</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14.5300782654341</v>
-      </c>
+        <v>19.38</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -622,26 +722,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C7" t="n">
-        <v>106.36</v>
-      </c>
+        <v>1955</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>97005.00000112</v>
-      </c>
-      <c r="E7" t="n">
-        <v>207</v>
-      </c>
-      <c r="F7" t="n">
-        <v>55.66652786</v>
-      </c>
-      <c r="G7" t="n">
-        <v>12049314</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14.2704949854784</v>
-      </c>
+        <v>19.56</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -650,26 +755,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C8" t="n">
-        <v>131.04</v>
-      </c>
+        <v>1956</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>97005.00000112</v>
-      </c>
-      <c r="E8" t="n">
-        <v>207</v>
-      </c>
-      <c r="F8" t="n">
-        <v>31.55652174</v>
-      </c>
-      <c r="G8" t="n">
-        <v>12161723</v>
-      </c>
-      <c r="H8" t="n">
-        <v>14.5174226869207</v>
-      </c>
+        <v>19.34</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -678,26 +788,4137 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>4195467</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>17.06</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4236386</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R13" t="n">
+        <v>55.66426365</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>0.299</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4.935483871</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4281744</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14857</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R14" t="n">
+        <v>55.65139032</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="U14" t="n">
+        <v>6.857096774</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4332926</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10911</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5699</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R15" t="n">
+        <v>55.63851699</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="U15" t="n">
+        <v>6.558387097</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>3721</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>3180000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>17.74</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4389417</v>
+      </c>
+      <c r="I16" t="n">
+        <v>11202</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R16" t="n">
+        <v>56.16632338</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6.321383648</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>3180000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>19.08</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4457282</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13365</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>-0.094</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6000</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R17" t="n">
+        <v>56.15345005</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>-0.094</v>
+      </c>
+      <c r="U17" t="n">
+        <v>6.875786164</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>3180000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4548972</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14322</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R18" t="n">
+        <v>56.14057673</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="U18" t="n">
+        <v>7.648427673</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>3180000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>21.22</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4661271</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14385</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5500</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R19" t="n">
+        <v>56.1277034</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="U19" t="n">
+        <v>7.227987421</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>3180000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4785003</v>
+      </c>
+      <c r="I20" t="n">
+        <v>16526</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>9050</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R20" t="n">
+        <v>56.11483007</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="U20" t="n">
+        <v>9.049056604</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>3186000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4915162</v>
+      </c>
+      <c r="I21" t="n">
+        <v>21175</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M21" t="n">
+        <v>13380</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R21" t="n">
+        <v>57.08032956</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="U21" t="n">
+        <v>12.10138104</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>3193000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>18.29</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5047404</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19300</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>-0.211</v>
+      </c>
+      <c r="M22" t="n">
+        <v>12700</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R22" t="n">
+        <v>58.27111226</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>-0.211</v>
+      </c>
+      <c r="U22" t="n">
+        <v>10.67961165</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5182040</v>
+      </c>
+      <c r="I23" t="n">
+        <v>16500</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>-0.241</v>
+      </c>
+      <c r="M23" t="n">
+        <v>18300</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R23" t="n">
+        <v>58.30329557</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>-0.241</v>
+      </c>
+      <c r="U23" t="n">
+        <v>11.71875</v>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>3230000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5320148</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17800</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>-0.361</v>
+      </c>
+      <c r="M24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R24" t="n">
+        <v>58.93408857</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>-0.361</v>
+      </c>
+      <c r="U24" t="n">
+        <v>11.14551084</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>3290000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5463650</v>
+      </c>
+      <c r="I25" t="n">
+        <v>18020</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>-0.142</v>
+      </c>
+      <c r="M25" t="n">
+        <v>19059</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R25" t="n">
+        <v>59.50051493</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>-0.142</v>
+      </c>
+      <c r="U25" t="n">
+        <v>11.99969605</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="n">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>39.7</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>3340000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5613116</v>
+      </c>
+      <c r="I26" t="n">
+        <v>22703</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>-0.355</v>
+      </c>
+      <c r="M26" t="n">
+        <v>22700</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R26" t="n">
+        <v>59.80947477</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>-0.355</v>
+      </c>
+      <c r="U26" t="n">
+        <v>15.0488024</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="n">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>3410000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5769074</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25697</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>-0.367</v>
+      </c>
+      <c r="M27" t="n">
+        <v>23380</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R27" t="n">
+        <v>60.24716787</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>-0.367</v>
+      </c>
+      <c r="U27" t="n">
+        <v>15.35982405</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W27" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>37.61</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>3480000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>30.43</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5929998</v>
+      </c>
+      <c r="I28" t="n">
+        <v>26900</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>-0.747</v>
+      </c>
+      <c r="M28" t="n">
+        <v>24900</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R28" t="n">
+        <v>60.68486097</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>-0.747</v>
+      </c>
+      <c r="U28" t="n">
+        <v>15.60344828</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.236</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>41.42</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>3527000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="H29" t="n">
+        <v>6092769</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23300</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="M29" t="n">
+        <v>17200</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R29" t="n">
+        <v>60.97451081</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="U29" t="n">
+        <v>12.41848597</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.402</v>
+      </c>
+      <c r="W29" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>37.7</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>3413000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6254876</v>
+      </c>
+      <c r="I30" t="n">
+        <v>27700</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>-0.385</v>
+      </c>
+      <c r="M30" t="n">
+        <v>23500</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R30" t="n">
+        <v>60.22785788</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>-0.385</v>
+      </c>
+      <c r="U30" t="n">
+        <v>16.17345444</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.568</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>38.55</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>19.48</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>3406000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>24.22</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6416191</v>
+      </c>
+      <c r="I31" t="n">
+        <v>29000</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="M31" t="n">
+        <v>27000</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R31" t="n">
+        <v>59.81591143</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="U31" t="n">
+        <v>17.61597181</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>3191000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6578156</v>
+      </c>
+      <c r="I32" t="n">
+        <v>33800</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>-0.201</v>
+      </c>
+      <c r="M32" t="n">
+        <v>23800</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R32" t="n">
+        <v>58.32260556</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>-0.201</v>
+      </c>
+      <c r="U32" t="n">
+        <v>19.49232216</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>41.12</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>3170000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>29.99</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6744050</v>
+      </c>
+      <c r="I33" t="n">
+        <v>49080</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="M33" t="n">
+        <v>30510</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R33" t="n">
+        <v>58.753862</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="U33" t="n">
+        <v>26.4637224</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>3160000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6914963</v>
+      </c>
+      <c r="I34" t="n">
+        <v>40200</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="M34" t="n">
+        <v>37100</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R34" t="n">
+        <v>59.32028836</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="U34" t="n">
+        <v>25.68386076</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="W34" t="n">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>48.6</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>19.41</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>3140000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>33.35</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7091270</v>
+      </c>
+      <c r="I35" t="n">
+        <v>41500</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="M35" t="n">
+        <v>33200</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R35" t="n">
+        <v>59.996138</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="U35" t="n">
+        <v>25.06369427</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>44.12</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>3120000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7279157</v>
+      </c>
+      <c r="I36" t="n">
+        <v>42600</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>-0.132</v>
+      </c>
+      <c r="M36" t="n">
+        <v>41900</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R36" t="n">
+        <v>60.13130793</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>-0.132</v>
+      </c>
+      <c r="U36" t="n">
+        <v>28.23717949</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W36" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>52.89</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>3070000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38.86</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7476092</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50100</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="M37" t="n">
+        <v>44900</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R37" t="n">
+        <v>59.78372812</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="U37" t="n">
+        <v>31.40065147</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>47.64</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>3030000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7675499</v>
+      </c>
+      <c r="I38" t="n">
+        <v>53100</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="M38" t="n">
+        <v>51200</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R38" t="n">
+        <v>59.17868177</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="U38" t="n">
+        <v>34.75247525</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>53.49</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>2980000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>42.7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7874302</v>
+      </c>
+      <c r="I39" t="n">
+        <v>49000</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="M39" t="n">
+        <v>50600</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R39" t="n">
+        <v>59.25592173</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="U39" t="n">
+        <v>35.10067114</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="W39" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>2936000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>44.55</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8068788</v>
+      </c>
+      <c r="I40" t="n">
+        <v>49900</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="M40" t="n">
+        <v>46400</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R40" t="n">
+        <v>59.02420185</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="U40" t="n">
+        <v>34.5027248</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.765</v>
+      </c>
+      <c r="W40" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>2910000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>44.62</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8256396</v>
+      </c>
+      <c r="I41" t="n">
+        <v>45900</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="M41" t="n">
+        <v>49500</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R41" t="n">
+        <v>59.33959835</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="U41" t="n">
+        <v>35.63573883</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="W41" t="n">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E42" t="n">
+        <v>22.25144088</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2909000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>45.34</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8440023</v>
+      </c>
+      <c r="I42" t="n">
+        <v>44200</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M42" t="n">
+        <v>37700</v>
+      </c>
+      <c r="N42" t="n">
+        <v>770.4</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R42" t="n">
+        <v>59.15937178</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U42" t="n">
+        <v>28.8415263</v>
+      </c>
+      <c r="V42" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>80.2</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>19.88</v>
+      </c>
+      <c r="E43" t="n">
+        <v>21.83290735</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2908000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>45.58</v>
+      </c>
+      <c r="H43" t="n">
+        <v>8622853</v>
+      </c>
+      <c r="I43" t="n">
+        <v>45100</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>23.0520964579591</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.049</v>
+      </c>
+      <c r="M43" t="n">
+        <v>51700</v>
+      </c>
+      <c r="N43" t="n">
+        <v>788.4</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R43" t="n">
+        <v>59.28166838</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>-0.049</v>
+      </c>
+      <c r="U43" t="n">
+        <v>34.00962861</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.0234</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>63.32</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="E44" t="n">
+        <v>21.57958462</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2908000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>47.38</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8802540</v>
+      </c>
+      <c r="I44" t="n">
+        <v>48100</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>22.7587471608735</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M44" t="n">
+        <v>54943</v>
+      </c>
+      <c r="N44" t="n">
+        <v>784.8</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R44" t="n">
+        <v>60.21498455</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="U44" t="n">
+        <v>36.12207703</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.9798</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>70.96</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="E45" t="n">
+        <v>21.45020777</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2987000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>50.56</v>
+      </c>
+      <c r="H45" t="n">
+        <v>8977173</v>
+      </c>
+      <c r="I45" t="n">
+        <v>42700</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>22.5646178273858</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="M45" t="n">
+        <v>50200</v>
+      </c>
+      <c r="N45" t="n">
+        <v>943.2</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R45" t="n">
+        <v>60.64624099</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="U45" t="n">
+        <v>31.93839973</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.9362</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>47.13</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E46" t="n">
+        <v>21.40351191</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2830000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>52.68</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9143141</v>
+      </c>
+      <c r="I46" t="n">
+        <v>39000</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>22.3328453228818</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.348</v>
+      </c>
+      <c r="M46" t="n">
+        <v>47000</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1112.4</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R46" t="n">
+        <v>59.7515448</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>1.348</v>
+      </c>
+      <c r="U46" t="n">
+        <v>31.44876325</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.8926</v>
+      </c>
+      <c r="W46" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="E47" t="n">
+        <v>21.39823214</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2842000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>55.24</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9294102</v>
+      </c>
+      <c r="I47" t="n">
+        <v>35000</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>22.1299356815496</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="M47" t="n">
+        <v>40000</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1054.8</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R47" t="n">
+        <v>60.16992791</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="U47" t="n">
+        <v>27.09359606</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="E48" t="n">
+        <v>22.0303256</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2845000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>57.73</v>
+      </c>
+      <c r="H48" t="n">
+        <v>9430550</v>
+      </c>
+      <c r="I48" t="n">
+        <v>41000</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>21.7767979938807</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M48" t="n">
+        <v>52000</v>
+      </c>
+      <c r="N48" t="n">
+        <v>954</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R48" t="n">
+        <v>60.01544799</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="U48" t="n">
+        <v>34.09490334</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.8046</v>
+      </c>
+      <c r="W48" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>55.32</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="E49" t="n">
+        <v>23.53522684</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2845000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>60.48</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9557948</v>
+      </c>
+      <c r="I49" t="n">
+        <v>40020</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>21.438096896596</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="M49" t="n">
+        <v>51500</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1112.4</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R49" t="n">
+        <v>60.16349125</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>1.265</v>
+      </c>
+      <c r="U49" t="n">
+        <v>33.92618629</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.7602</v>
+      </c>
+      <c r="W49" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>73.12</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="E50" t="n">
+        <v>25.3308871</v>
+      </c>
+      <c r="F50" t="n">
+        <v>2879000</v>
+      </c>
+      <c r="G50" t="n">
+        <v>65.42</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9677148</v>
+      </c>
+      <c r="I50" t="n">
+        <v>44528</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>21.086325890303</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="M50" t="n">
+        <v>63325</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1267.2</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R50" t="n">
+        <v>60.63336766</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="U50" t="n">
+        <v>39.54602292</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.7158</v>
+      </c>
+      <c r="W50" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="E51" t="n">
+        <v>26.83525762</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2909000</v>
+      </c>
+      <c r="G51" t="n">
+        <v>71.06</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9788067</v>
+      </c>
+      <c r="I51" t="n">
+        <v>43000</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>20.6678334029328</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="M51" t="n">
+        <v>65000</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1522.8</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R51" t="n">
+        <v>61.31565396</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="U51" t="n">
+        <v>38.56995531</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.6714</v>
+      </c>
+      <c r="W51" t="n">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>27.46628966</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2864000</v>
+      </c>
+      <c r="G52" t="n">
+        <v>74.34999999999999</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9893316</v>
+      </c>
+      <c r="I52" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>20.2640531404257</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="M52" t="n">
+        <v>62100</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1641.6</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R52" t="n">
+        <v>61.47657055</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="U52" t="n">
+        <v>38.86173184</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W52" t="n">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>50.87</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="E53" t="n">
+        <v>27.17429363</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2774000</v>
+      </c>
+      <c r="G53" t="n">
+        <v>77.08</v>
+      </c>
+      <c r="H53" t="n">
+        <v>9995123</v>
+      </c>
+      <c r="I53" t="n">
+        <v>40000</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>19.8652193025814</v>
+      </c>
+      <c r="L53" t="n">
+        <v>2.017</v>
+      </c>
+      <c r="M53" t="n">
+        <v>55000</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1778.4</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R53" t="n">
+        <v>61.14186406</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="n">
+        <v>2.017</v>
+      </c>
+      <c r="U53" t="n">
+        <v>36.04902668</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.809</v>
+      </c>
+      <c r="W53" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>51.18</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20.21</v>
+      </c>
+      <c r="E54" t="n">
+        <v>26.477495</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2771000</v>
+      </c>
+      <c r="G54" t="n">
+        <v>78.64</v>
+      </c>
+      <c r="H54" t="n">
+        <v>10094561</v>
+      </c>
+      <c r="I54" t="n">
+        <v>41000</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>19.6589106201493</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.273</v>
+      </c>
+      <c r="M54" t="n">
+        <v>56000</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1843.2</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R54" t="n">
+        <v>62.84114315</v>
+      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>1.273</v>
+      </c>
+      <c r="U54" t="n">
+        <v>36.80981595</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.824</v>
+      </c>
+      <c r="W54" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20.18</v>
+      </c>
+      <c r="E55" t="n">
+        <v>25.6457176</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2790000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10193798</v>
+      </c>
+      <c r="I55" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>19.2478799970523</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="M55" t="n">
+        <v>60000</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1861.2</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R55" t="n">
+        <v>62.97631308</v>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="U55" t="n">
+        <v>39.60573477</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.839</v>
+      </c>
+      <c r="W55" t="n">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E56" t="n">
+        <v>24.94878524</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2791000</v>
+      </c>
+      <c r="G56" t="n">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10292225</v>
+      </c>
+      <c r="I56" t="n">
+        <v>45500</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>18.7558823054873</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="M56" t="n">
+        <v>68000</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2048.4</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R56" t="n">
+        <v>63.27239959</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="U56" t="n">
+        <v>42.6728771</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.854</v>
+      </c>
+      <c r="W56" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="E57" t="n">
+        <v>24.65652174</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2730000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>76.19</v>
+      </c>
+      <c r="H57" t="n">
+        <v>10388344</v>
+      </c>
+      <c r="I57" t="n">
+        <v>45500</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>18.5251915261202</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="M57" t="n">
+        <v>73000</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2217.6</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R57" t="n">
+        <v>63.23377961</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="U57" t="n">
+        <v>45.45787546</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.869</v>
+      </c>
+      <c r="W57" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20.28</v>
+      </c>
+      <c r="E58" t="n">
+        <v>24.91612061</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2763000</v>
+      </c>
+      <c r="G58" t="n">
+        <v>76.12</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10483558</v>
+      </c>
+      <c r="I58" t="n">
+        <v>45000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>19.4381984731359</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.354</v>
+      </c>
+      <c r="M58" t="n">
+        <v>73500</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2876.4</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R58" t="n">
+        <v>63.11791967</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="n">
+        <v>1.354</v>
+      </c>
+      <c r="U58" t="n">
+        <v>44.91494752</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.884</v>
+      </c>
+      <c r="W58" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>85.5</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20.36</v>
+      </c>
+      <c r="E59" t="n">
+        <v>25.53514643</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2733000</v>
+      </c>
+      <c r="G59" t="n">
+        <v>81.48</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10580395</v>
+      </c>
+      <c r="I59" t="n">
+        <v>46000</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>18.7020423864381</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="M59" t="n">
+        <v>74500</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3070.8</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R59" t="n">
+        <v>63.11148301</v>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="U59" t="n">
+        <v>46.13977314</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="W59" t="n">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="E60" t="n">
+        <v>26.27397962</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2835000</v>
+      </c>
+      <c r="G60" t="n">
+        <v>81.48</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10680380</v>
+      </c>
+      <c r="I60" t="n">
+        <v>37000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="K60" t="n">
+        <v>18.0217452818055</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="M60" t="n">
+        <v>73600</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2725.2</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R60" t="n">
+        <v>63.60066941</v>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="U60" t="n">
+        <v>40.84656085</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="W60" t="n">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>87.7</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20.38</v>
+      </c>
+      <c r="E61" t="n">
+        <v>26.89300057</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2707000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>80.7</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10784504</v>
+      </c>
+      <c r="I61" t="n">
+        <v>48000</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>18.4712188357519</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="M61" t="n">
+        <v>78000</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2649.6</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R61" t="n">
+        <v>63.0084964</v>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="U61" t="n">
+        <v>48.39305504</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="W61" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="E62" t="n">
+        <v>27.15258968</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2823000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>83.91</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10895063</v>
+      </c>
+      <c r="I62" t="n">
+        <v>49000</v>
+      </c>
+      <c r="J62" t="n">
+        <v>10.14415</v>
+      </c>
+      <c r="K62" t="n">
+        <v>17.9460990980078</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="M62" t="n">
+        <v>80000</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3085.2</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R62" t="n">
+        <v>64.61122554000001</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="U62" t="n">
+        <v>47.43181013</v>
+      </c>
+      <c r="V62" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="W62" t="n">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="E63" t="n">
+        <v>23.79684426</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2839000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>83.67</v>
+      </c>
+      <c r="H63" t="n">
+        <v>11032528</v>
+      </c>
+      <c r="I63" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>16.3611776809862</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="M63" t="n">
+        <v>82000</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3020.4</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R63" t="n">
+        <v>64.83007209</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="U63" t="n">
+        <v>48.397323</v>
+      </c>
+      <c r="V63" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="W63" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="E64" t="n">
+        <v>22.69446282</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2848000</v>
+      </c>
+      <c r="G64" t="n">
+        <v>88.59</v>
+      </c>
+      <c r="H64" t="n">
+        <v>11174383</v>
+      </c>
+      <c r="I64" t="n">
+        <v>51000</v>
+      </c>
+      <c r="J64" t="n">
+        <v>9.64392</v>
+      </c>
+      <c r="K64" t="n">
+        <v>17.0738047208224</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="M64" t="n">
+        <v>85000</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3286.8</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R64" t="n">
+        <v>63.86457261</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="U64" t="n">
+        <v>49.50842697</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3.3188</v>
+      </c>
+      <c r="W64" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="E65" t="n">
+        <v>22.14157491</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2853000</v>
+      </c>
+      <c r="G65" t="n">
+        <v>91.26000000000001</v>
+      </c>
+      <c r="H65" t="n">
+        <v>11300284</v>
+      </c>
+      <c r="I65" t="n">
+        <v>52500</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>15.3647603454432</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M65" t="n">
+        <v>58900</v>
+      </c>
+      <c r="N65" t="n">
+        <v>3639.6</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R65" t="n">
+        <v>63.99974253</v>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U65" t="n">
+        <v>40.41359972</v>
+      </c>
+      <c r="V65" t="n">
+        <v>3.4206</v>
+      </c>
+      <c r="W65" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="E66" t="n">
+        <v>25.16384477</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2588000</v>
+      </c>
+      <c r="G66" t="n">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="H66" t="n">
+        <v>11428948</v>
+      </c>
+      <c r="I66" t="n">
+        <v>49800</v>
+      </c>
+      <c r="J66" t="n">
+        <v>9.143689999999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>14.8672966763635</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.956</v>
+      </c>
+      <c r="M66" t="n">
+        <v>64700</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3672</v>
+      </c>
+      <c r="O66" t="n">
+        <v>97609.99999235199</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1699175.606147313</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R66" t="n">
+        <v>62.82826982</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>1.956</v>
+      </c>
+      <c r="U66" t="n">
+        <v>45.7496136</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3.5224</v>
+      </c>
+      <c r="W66" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>119.87</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>23.63444125</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2570000</v>
+      </c>
+      <c r="G67" t="n">
+        <v>101.18</v>
+      </c>
+      <c r="H67" t="n">
+        <v>11557779</v>
+      </c>
+      <c r="I67" t="n">
+        <v>58400</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>14.7513386946901</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.273</v>
+      </c>
+      <c r="M67" t="n">
+        <v>74100</v>
+      </c>
+      <c r="N67" t="n">
+        <v>3772.8</v>
+      </c>
+      <c r="O67" t="n">
+        <v>98339.999998464</v>
+      </c>
+      <c r="P67" t="n">
+        <v>1704927.125873767</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R67" t="n">
+        <v>63.29814624</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.273</v>
+      </c>
+      <c r="U67" t="n">
+        <v>53.11284047</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.6242</v>
+      </c>
+      <c r="W67" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>24.80892166</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2563600</v>
+      </c>
+      <c r="G68" t="n">
+        <v>102.06</v>
+      </c>
+      <c r="H68" t="n">
+        <v>11685667</v>
+      </c>
+      <c r="I68" t="n">
+        <v>54900</v>
+      </c>
+      <c r="J68" t="n">
+        <v>8.643459999999999</v>
+      </c>
+      <c r="K68" t="n">
+        <v>14.7653815482021</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.974</v>
+      </c>
+      <c r="M68" t="n">
+        <v>98700</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4204.8</v>
+      </c>
+      <c r="O68" t="n">
+        <v>97025.999996784</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1725433.319002342</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R68" t="n">
+        <v>62.45236869</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.974</v>
+      </c>
+      <c r="U68" t="n">
+        <v>61.9831487</v>
+      </c>
+      <c r="V68" t="n">
+        <v>3.726</v>
+      </c>
+      <c r="W68" t="n">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>22.57175707</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2606900</v>
+      </c>
+      <c r="G69" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="H69" t="n">
+        <v>11811443</v>
+      </c>
+      <c r="I69" t="n">
+        <v>45600</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>14.8123065617095</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="M69" t="n">
+        <v>76500</v>
+      </c>
+      <c r="N69" t="n">
+        <v>4165.2</v>
+      </c>
+      <c r="O69" t="n">
+        <v>97428.99999939199</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1749547.146521578</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R69" t="n">
+        <v>62.71176622</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="U69" t="n">
+        <v>48.75522651</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.526</v>
+      </c>
+      <c r="W69" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>118.98</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>25.5228521</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2569600</v>
+      </c>
+      <c r="G70" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="H70" t="n">
+        <v>11933041</v>
+      </c>
+      <c r="I70" t="n">
+        <v>55300</v>
+      </c>
+      <c r="J70" t="n">
+        <v>8.14324</v>
+      </c>
+      <c r="K70" t="n">
+        <v>14.5300782654341</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="M70" t="n">
+        <v>85900</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4201.2</v>
+      </c>
+      <c r="O70" t="n">
+        <v>97005.00000112</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1733880.19674634</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R70" t="n">
+        <v>62.4388517</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="U70" t="n">
+        <v>57.24626401</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3.78072</v>
+      </c>
+      <c r="W70" t="n">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>106.36</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>23.77140341</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2569600</v>
+      </c>
+      <c r="G71" t="n">
+        <v>98.93000000000001</v>
+      </c>
+      <c r="H71" t="n">
+        <v>12049314</v>
+      </c>
+      <c r="I71" t="n">
+        <v>58800</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>14.2704949854784</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.413</v>
+      </c>
+      <c r="M71" t="n">
+        <v>78040.71000000001</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4052.0736</v>
+      </c>
+      <c r="O71" t="n">
+        <v>97005.00000112</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1719496.750154547</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R71" t="n">
+        <v>62.4388517</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.413</v>
+      </c>
+      <c r="U71" t="n">
+        <v>55.66652786</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.793</v>
+      </c>
+      <c r="W71" t="n">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>131.04</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>24.18298267</v>
+      </c>
+      <c r="F72" t="n">
+        <v>2831300</v>
+      </c>
+      <c r="G72" t="n">
+        <v>101.72</v>
+      </c>
+      <c r="H72" t="n">
+        <v>12161723</v>
+      </c>
+      <c r="I72" t="n">
+        <v>48168.37</v>
+      </c>
+      <c r="J72" t="n">
+        <v>7.64301</v>
+      </c>
+      <c r="K72" t="n">
+        <v>14.5174226869207</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="M72" t="n">
+        <v>70243.60000000001</v>
+      </c>
+      <c r="N72" t="n">
+        <v>4746.6972</v>
+      </c>
+      <c r="O72" t="n">
+        <v>97005.00000112</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1765568.733922453</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R72" t="n">
+        <v>62.4388517</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="U72" t="n">
+        <v>31.55652174</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="W72" t="n">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
         <v>2021</v>
       </c>
-      <c r="C9" t="n">
-        <v>102.89</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>102.89</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>2831300</v>
+      </c>
+      <c r="G73" t="n">
+        <v>104.96</v>
+      </c>
+      <c r="H73" t="n">
+        <v>12262946</v>
+      </c>
+      <c r="I73" t="n">
+        <v>47524.8</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>14.3885058596793</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>116528.56</v>
+      </c>
+      <c r="N73" t="n">
+        <v>4746.6972</v>
+      </c>
+      <c r="O73" t="n">
         <v>97005.00000112</v>
       </c>
-      <c r="E9" t="n">
-        <v>207</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="P73" t="n">
+        <v>1764454.703779309</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>155360</v>
+      </c>
+      <c r="R73" t="n">
+        <v>62.4388517</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U73" t="n">
         <v>48.04885035</v>
       </c>
-      <c r="G9" t="n">
-        <v>12262946</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14.3885058596793</v>
-      </c>
+      <c r="V73" t="n">
+        <v>3.864</v>
+      </c>
+      <c r="W73" t="n">
+        <v>6165.6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>111.48</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>104.46</v>
+      </c>
+      <c r="H74" t="n">
+        <v>12356117</v>
+      </c>
+      <c r="I74" t="n">
+        <v>47524.8</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>14.0120158612492</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2.169</v>
+      </c>
+      <c r="M74" t="n">
+        <v>93739.75999999999</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4746.6972</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>2.169</v>
+      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="n">
+        <v>6191.28</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>12458223</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>2.403</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.403</v>
+      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
